--- a/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B77" s="65">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
